--- a/data/trans_camb/P25A_5_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,50 +541,68 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 0,0</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,66</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,63</t>
+          <t>-16,48; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,72</t>
+          <t>0,0; 8,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 2,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,27 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-47,65%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-74,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-28,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-29,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,7; 266,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 3,97</t>
+          <t>-14,66; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,0</t>
+          <t>-9,95; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 6,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,86</t>
+          <t>0,0; 13,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 1,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 3,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 6,76</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-12,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-28,14%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-57,35%</t>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-65,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59,08%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,38</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,35</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,2</t>
+          <t>0,0; 12,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 7,4</t>
+          <t>-1,47; 8,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,58</t>
+          <t>-0,38; 9,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,54</t>
+          <t>-1,49; 5,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 5,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 7,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 6,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>149,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143,16%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>149,21%</t>
+          <t>150,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>321,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>149,87%</t>
+          <t>142,42%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>245,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>398,42%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>348,21%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,1; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,21</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,83</t>
+          <t>1,15; 10,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,86</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,52</t>
+          <t>-2,14; 4,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,83</t>
+          <t>-1,15; 6,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,34</t>
+          <t>-0,26; 8,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 4,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 7,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 5,37</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>177,2%</t>
+          <t>188,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>127,22%</t>
+          <t>302,48%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>296,87%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>561,63%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>401,23%</t>
         </is>
       </c>
     </row>
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 1086,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,72; 1269,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 23,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,69</t>
+          <t>-12,28; 2,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,37</t>
+          <t>-12,63; 1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,58</t>
+          <t>-10,28; 5,57</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 1,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 17,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 3,52</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>-59,72%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>247,18%</t>
+          <t>-62,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>124,79%</t>
+          <t>-19,22%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-60,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>132,21%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-9,57%</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1680,22 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,34; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>8,65</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 12,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 19,09</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,53</t>
+          <t>-13,21; 14,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 12,07</t>
+          <t>-11,23; 16,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,19</t>
+          <t>-6,88; 41,77</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 8,74</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 9,55</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 27,88</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1828,37 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>125,17%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-48,33%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>157,79%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,58%</t>
+          <t>125,61%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>165,44%</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 1266,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,12 +1891,27 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 1040,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 415,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,85</t>
+          <t>-1,9; 1,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,98</t>
+          <t>-0,05; 5,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,04</t>
+          <t>-1,24; 3,03</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,27</t>
+          <t>-1,8; 3,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,52</t>
+          <t>-1,43; 3,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,68</t>
+          <t>0,16; 12,08</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 1,69</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,46</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,87</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>170,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>178,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>92,25%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>130,12%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 611,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 556,17</t>
+          <t>-43,31; 1442,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 299,95</t>
+          <t>-82,57; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 171,45</t>
+          <t>-68,62; 363,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 222,6</t>
+          <t>-62,01; 373,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 145,61</t>
+          <t>-31,56; 1013,38</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-65,53; 169,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 325,02</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 489,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
